--- a/resources/ESI_PHA_BOT_RESP_BUILDER_FR_CA.xlsx
+++ b/resources/ESI_PHA_BOT_RESP_BUILDER_FR_CA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2243665\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kore-AI-Pharmacy-Bot\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C653CA-2C27-465D-8A43-BA411478CFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3539D-BA9F-4755-9997-B0D288416A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB3E365-0F38-41A0-882A-60B13BA55A8E}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="RICH_CARDS_CONFIG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,9 +66,6 @@
     <t>ESI_PHA_&lt;USECASE_ID&gt;_&lt;STEP_ID3&gt;</t>
   </si>
   <si>
-    <t>ESI_PHA_ORD_INFO_ASK_ORD_TITLE</t>
-  </si>
-  <si>
     <t>ESI_PHA_ORD_INFO_ASK_ORD_ID</t>
   </si>
   <si>
@@ -212,6 +208,9 @@
   </si>
   <si>
     <t>Je clôt notre conversation actuelle, car je n’ai reçu aucune contribution de votre part. Nous pouvons recommencer quand vous en avez besoin.</t>
+  </si>
+  <si>
+    <t>ESI_PHA_ORD_INFO_WELCOME_MSG</t>
   </si>
 </sst>
 </file>
@@ -614,7 +613,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,10 +644,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -656,10 +655,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -667,10 +666,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -678,10 +677,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -689,10 +688,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -700,10 +699,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -711,10 +710,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -722,10 +721,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -733,10 +732,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -744,10 +743,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -755,10 +754,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -766,50 +765,50 @@
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -842,16 +841,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -865,7 +864,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -876,16 +875,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -896,16 +895,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -916,13 +915,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -930,18 +929,18 @@
     </row>
     <row r="6" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
